--- a/hyp_rep_V2.xlsx
+++ b/hyp_rep_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main - TEST - CNT2AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2234345-2B22-4FB4-BDEC-E90D9DA981CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA9D3D-7F2E-4891-BA53-201C3E0F8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16380" windowWidth="29040" windowHeight="15720" tabRatio="832" firstSheet="19" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="salle_K_ABCDT1" sheetId="7" r:id="rId1"/>
@@ -43,6 +43,10 @@
     <sheet name="C2G_salle_K" sheetId="34" r:id="rId28"/>
     <sheet name="C2G_salle_L" sheetId="35" r:id="rId29"/>
     <sheet name="C2G_Salle_M" sheetId="36" r:id="rId30"/>
+    <sheet name="C2A_C2A" sheetId="37" r:id="rId31"/>
+    <sheet name="C2A_C2C" sheetId="38" r:id="rId32"/>
+    <sheet name="C2C_C2A" sheetId="39" r:id="rId33"/>
+    <sheet name="C2C_C2C" sheetId="41" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="19">
   <si>
     <t>heure</t>
   </si>
@@ -488,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -5399,7 +5403,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L8"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,6 +5973,1346 @@
       </c>
       <c r="C8">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBDE2F8-3AB7-45A2-A61C-CC2BBD52C627}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB4F333-EFAA-46D8-82F4-6962FB9F1F37}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E329F6E9-7773-4699-8455-6BE065B0D1D2}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42947FD-538E-4A20-81BA-1AAC418CC5F6}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
